--- a/Golden_State_Warriors_2025-26_stats.xlsx
+++ b/Golden_State_Warriors_2025-26_stats.xlsx
@@ -9,8 +9,12 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Points" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Assists" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Avg Points" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Avg Assists" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Rebounds" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3PM" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Avg Points" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Avg Assists" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Avg Rebounds" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Avg 3PM" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1818,7 +1822,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:P12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1829,153 +1833,677 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Player</t>
+          <t>Game Time (PST)</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Avg Points</t>
+          <t>Opponent</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Gary Payton II</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Jonathan Kuminga</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Brandin Podziemski</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Will Richard</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Moses Moody</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Buddy Hield</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Jimmy Butler III</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Gui Santos</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Al Horford</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Quinten Post</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Draymond Green</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Stephen Curry</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Trayce Jackson-Davis</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Pat Spencer</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Stephen Curry</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>26.75</v>
+          <t>2025-10-21</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>LAL</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>9</v>
+      </c>
+      <c r="E2" t="n">
+        <v>7</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" t="n">
+        <v>5</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>5</v>
+      </c>
+      <c r="L2" t="n">
+        <v>2</v>
+      </c>
+      <c r="M2" t="n">
+        <v>7</v>
+      </c>
+      <c r="N2" t="n">
+        <v>1</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Jimmy Butler III</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>18.9</v>
+          <t>2025-10-23</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>DEN</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5</v>
+      </c>
+      <c r="E3" t="n">
+        <v>3</v>
+      </c>
+      <c r="F3" t="n">
+        <v>5</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+      <c r="I3" t="n">
+        <v>5</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>3</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>8</v>
+      </c>
+      <c r="N3" t="n">
+        <v>6</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Jonathan Kuminga</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>15.09090909090909</v>
+          <t>2025-10-24</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>POR</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>8</v>
+      </c>
+      <c r="E4" t="n">
+        <v>5</v>
+      </c>
+      <c r="F4" t="n">
+        <v>2</v>
+      </c>
+      <c r="G4" t="n">
+        <v>2</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>3</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>4</v>
+      </c>
+      <c r="M4" t="n">
+        <v>3</v>
+      </c>
+      <c r="N4" t="n">
+        <v>6</v>
+      </c>
+      <c r="O4" t="n">
+        <v>4</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Brandin Podziemski</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>12.18181818181818</v>
+          <t>2025-10-27</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>MEM</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>10</v>
+      </c>
+      <c r="E5" t="n">
+        <v>4</v>
+      </c>
+      <c r="F5" t="n">
+        <v>2</v>
+      </c>
+      <c r="G5" t="n">
+        <v>2</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+      <c r="I5" t="n">
+        <v>5</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>4</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="n">
+        <v>4</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Moses Moody</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>11.77777777777778</v>
+          <t>2025-10-28</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>LAC</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="n">
+        <v>5</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>3</v>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+      <c r="I6" t="n">
+        <v>5</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>4</v>
+      </c>
+      <c r="L6" t="n">
+        <v>8</v>
+      </c>
+      <c r="M6" t="n">
+        <v>7</v>
+      </c>
+      <c r="N6" t="n">
+        <v>2</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Will Richard</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>10.11111111111111</v>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>MIL</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>8</v>
+      </c>
+      <c r="E7" t="n">
+        <v>5</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>3</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>10</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2</v>
+      </c>
+      <c r="L7" t="n">
+        <v>3</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="n">
+        <v>6</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Draymond Green</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>8.4</v>
+          <t>2025-11-01</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>IND</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>3</v>
+      </c>
+      <c r="D8" t="n">
+        <v>5</v>
+      </c>
+      <c r="E8" t="n">
+        <v>4</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>2</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>6</v>
+      </c>
+      <c r="J8" t="n">
+        <v>4</v>
+      </c>
+      <c r="K8" t="n">
+        <v>6</v>
+      </c>
+      <c r="L8" t="n">
+        <v>3</v>
+      </c>
+      <c r="M8" t="n">
+        <v>10</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Buddy Hield</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>7.727272727272728</v>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>PHX</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>5</v>
+      </c>
+      <c r="E9" t="n">
+        <v>2</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>5</v>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+      <c r="I9" t="n">
+        <v>4</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>7</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="n">
+        <v>4</v>
+      </c>
+      <c r="O9" t="n">
+        <v>2</v>
+      </c>
+      <c r="P9" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Quinten Post</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>6.363636363636363</v>
+          <t>2025-11-05</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>SAC</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>2</v>
+      </c>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="n">
+        <v>9</v>
+      </c>
+      <c r="F10" t="n">
+        <v>7</v>
+      </c>
+      <c r="G10" t="n">
+        <v>3</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" t="n">
+        <v>7</v>
+      </c>
+      <c r="L10" t="n">
+        <v>4</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Al Horford</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>5.571428571428571</v>
+          <t>2025-11-07</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>DEN</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>2</v>
+      </c>
+      <c r="D11" t="n">
+        <v>7</v>
+      </c>
+      <c r="E11" t="n">
+        <v>2</v>
+      </c>
+      <c r="F11" t="n">
+        <v>3</v>
+      </c>
+      <c r="G11" t="n">
+        <v>3</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>3</v>
+      </c>
+      <c r="J11" t="n">
+        <v>4</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>3</v>
+      </c>
+      <c r="M11" t="n">
+        <v>6</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>7</v>
+      </c>
+      <c r="P11" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Trayce Jackson-Davis</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>4.285714285714286</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Pat Spencer</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>4.142857142857143</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Gary Payton II</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>2.1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Gui Santos</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>1.7</v>
+          <t>2025-11-09</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>IND</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="n">
+        <v>8</v>
+      </c>
+      <c r="E12" t="n">
+        <v>6</v>
+      </c>
+      <c r="F12" t="n">
+        <v>3</v>
+      </c>
+      <c r="G12" t="n">
+        <v>3</v>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+      <c r="I12" t="n">
+        <v>9</v>
+      </c>
+      <c r="J12" t="n">
+        <v>2</v>
+      </c>
+      <c r="K12" t="n">
+        <v>4</v>
+      </c>
+      <c r="L12" t="n">
+        <v>8</v>
+      </c>
+      <c r="M12" t="n">
+        <v>2</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1984,6 +2512,701 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:P12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Game Time (PST)</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Opponent</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Gary Payton II</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Jonathan Kuminga</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Brandin Podziemski</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Will Richard</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Moses Moody</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Buddy Hield</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Jimmy Butler III</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Gui Santos</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Al Horford</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Quinten Post</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Draymond Green</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Stephen Curry</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Trayce Jackson-Davis</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Pat Spencer</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2025-10-21</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>LAL</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="n">
+        <v>3</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2025-10-23</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>DEN</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>2</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>3</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>2</v>
+      </c>
+      <c r="N3" t="n">
+        <v>6</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2025-10-24</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>POR</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="n">
+        <v>3</v>
+      </c>
+      <c r="N4" t="n">
+        <v>7</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2025-10-27</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>MEM</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>5</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>5</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N5" t="n">
+        <v>4</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2025-10-28</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>LAC</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" t="n">
+        <v>2</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" t="n">
+        <v>3</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>3</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>4</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="n">
+        <v>2</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>MIL</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="n">
+        <v>4</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2025-11-01</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>IND</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="n">
+        <v>2</v>
+      </c>
+      <c r="N8" t="n">
+        <v>4</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>PHX</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>5</v>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>4</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>5</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2025-11-05</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>SAC</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" t="n">
+        <v>2</v>
+      </c>
+      <c r="E10" t="n">
+        <v>2</v>
+      </c>
+      <c r="F10" t="n">
+        <v>5</v>
+      </c>
+      <c r="G10" t="n">
+        <v>6</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2025-11-07</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>DEN</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>2</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2025-11-09</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>IND</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>3</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1</v>
+      </c>
+      <c r="K12" t="n">
+        <v>4</v>
+      </c>
+      <c r="L12" t="n">
+        <v>2</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2005,13 +3228,184 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Avg Assists</t>
+          <t>Avg Points</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>Stephen Curry</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Jimmy Butler III</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>18.9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Jonathan Kuminga</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>15.09090909090909</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Brandin Podziemski</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>12.18181818181818</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Moses Moody</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>11.77777777777778</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Will Richard</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>10.11111111111111</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Draymond Green</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Buddy Hield</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>7.727272727272728</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Quinten Post</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>6.363636363636363</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Al Horford</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>5.571428571428571</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Trayce Jackson-Davis</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>4.285714285714286</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Pat Spencer</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>4.142857142857143</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Gary Payton II</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Gui Santos</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>1.7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Player</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Avg Assists</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
           <t>Draymond Green</t>
         </is>
       </c>
@@ -2147,6 +3541,348 @@
       </c>
       <c r="B15" t="n">
         <v>0.2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Player</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Avg Rebounds</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Jonathan Kuminga</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>7.181818181818182</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Draymond Green</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Jimmy Butler III</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Brandin Podziemski</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>4.727272727272728</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Al Horford</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>4.428571428571429</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Quinten Post</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>4.181818181818182</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Stephen Curry</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>3.625</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Moses Moody</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>2.888888888888889</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Will Richard</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>2.555555555555555</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Trayce Jackson-Davis</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Gary Payton II</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Pat Spencer</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>1.714285714285714</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Buddy Hield</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>1.545454545454545</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Gui Santos</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>1.3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Player</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Avg 3PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Stephen Curry</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>4.375</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Moses Moody</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>2.666666666666667</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Draymond Green</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Brandin Podziemski</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1.636363636363636</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Buddy Hield</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1.363636363636364</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Al Horford</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>1.285714285714286</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Quinten Post</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1.272727272727273</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Will Richard</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1.222222222222222</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Jonathan Kuminga</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1.090909090909091</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Jimmy Butler III</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Gui Santos</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Pat Spencer</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.2857142857142857</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Gary Payton II</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Trayce Jackson-Davis</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Golden_State_Warriors_2025-26_stats.xlsx
+++ b/Golden_State_Warriors_2025-26_stats.xlsx
@@ -15,6 +15,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Avg Assists" sheetId="6" state="visible" r:id="rId6"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Avg Rebounds" sheetId="7" state="visible" r:id="rId7"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Avg 3PM" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Team Points" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -432,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P12"/>
+  <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1114,6 +1115,114 @@
       </c>
       <c r="P12" t="n">
         <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2025-11-11</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>OKC</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>2</v>
+      </c>
+      <c r="D13" t="n">
+        <v>13</v>
+      </c>
+      <c r="E13" t="n">
+        <v>10</v>
+      </c>
+      <c r="F13" t="n">
+        <v>9</v>
+      </c>
+      <c r="G13" t="n">
+        <v>10</v>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+      <c r="I13" t="n">
+        <v>12</v>
+      </c>
+      <c r="J13" t="n">
+        <v>4</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>6</v>
+      </c>
+      <c r="M13" t="n">
+        <v>3</v>
+      </c>
+      <c r="N13" t="n">
+        <v>11</v>
+      </c>
+      <c r="O13" t="n">
+        <v>6</v>
+      </c>
+      <c r="P13" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2025-11-12</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>SAS</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>4</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>6</v>
+      </c>
+      <c r="F14" t="n">
+        <v>3</v>
+      </c>
+      <c r="G14" t="n">
+        <v>19</v>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+      <c r="I14" t="n">
+        <v>28</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>9</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>6</v>
+      </c>
+      <c r="N14" t="n">
+        <v>46</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1127,7 +1236,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P12"/>
+  <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1809,6 +1918,114 @@
       </c>
       <c r="P12" t="n">
         <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2025-11-11</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>OKC</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>3</v>
+      </c>
+      <c r="D13" t="n">
+        <v>4</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+      <c r="I13" t="n">
+        <v>2</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>2</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2025-11-12</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>SAS</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>2</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>4</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1</v>
+      </c>
+      <c r="G14" t="n">
+        <v>3</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>8</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>3</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>4</v>
+      </c>
+      <c r="N14" t="n">
+        <v>5</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1822,7 +2039,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P12"/>
+  <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2503,6 +2720,114 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2025-11-11</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>OKC</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>6</v>
+      </c>
+      <c r="D13" t="n">
+        <v>3</v>
+      </c>
+      <c r="E13" t="n">
+        <v>4</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>3</v>
+      </c>
+      <c r="J13" t="n">
+        <v>3</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>3</v>
+      </c>
+      <c r="M13" t="n">
+        <v>2</v>
+      </c>
+      <c r="N13" t="n">
+        <v>1</v>
+      </c>
+      <c r="O13" t="n">
+        <v>6</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2025-11-12</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>SAS</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>6</v>
+      </c>
+      <c r="D14" t="n">
+        <v>4</v>
+      </c>
+      <c r="E14" t="n">
+        <v>6</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1</v>
+      </c>
+      <c r="G14" t="n">
+        <v>3</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>6</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>3</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="n">
+        <v>5</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2517,7 +2842,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P12"/>
+  <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3198,6 +3523,114 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2025-11-11</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>OKC</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>2</v>
+      </c>
+      <c r="F13" t="n">
+        <v>3</v>
+      </c>
+      <c r="G13" t="n">
+        <v>2</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>2</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" t="n">
+        <v>1</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2025-11-12</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>SAS</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>2</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1</v>
+      </c>
+      <c r="G14" t="n">
+        <v>5</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>5</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>3</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>5</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3239,7 +3672,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>26.75</v>
+        <v>27.1</v>
       </c>
     </row>
     <row r="3">
@@ -3249,7 +3682,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>18.9</v>
+        <v>19.08333333333333</v>
       </c>
     </row>
     <row r="4">
@@ -3259,27 +3692,27 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15.09090909090909</v>
+        <v>13.76923076923077</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Brandin Podziemski</t>
+          <t>Moses Moody</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>12.18181818181818</v>
+        <v>12.27272727272727</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Moses Moody</t>
+          <t>Brandin Podziemski</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>11.77777777777778</v>
+        <v>11.53846153846154</v>
       </c>
     </row>
     <row r="7">
@@ -3289,7 +3722,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10.11111111111111</v>
+        <v>9.363636363636363</v>
       </c>
     </row>
     <row r="8">
@@ -3299,7 +3732,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8.4</v>
+        <v>7.75</v>
       </c>
     </row>
     <row r="9">
@@ -3309,47 +3742,47 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>7.727272727272728</v>
+        <v>7.153846153846154</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Quinten Post</t>
+          <t>Al Horford</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6.363636363636363</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Al Horford</t>
+          <t>Quinten Post</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5.571428571428571</v>
+        <v>5.846153846153846</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Trayce Jackson-Davis</t>
+          <t>Pat Spencer</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4.285714285714286</v>
+        <v>5.125</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Pat Spencer</t>
+          <t>Trayce Jackson-Davis</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>4.142857142857143</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="14">
@@ -3359,7 +3792,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="15">
@@ -3369,7 +3802,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1.7</v>
+        <v>1.909090909090909</v>
       </c>
     </row>
   </sheetData>
@@ -3410,7 +3843,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5.8</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="3">
@@ -3420,7 +3853,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4.6</v>
+        <v>4.666666666666667</v>
       </c>
     </row>
     <row r="4">
@@ -3430,7 +3863,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4.25</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="5">
@@ -3440,7 +3873,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3.272727272727273</v>
+        <v>3.153846153846154</v>
       </c>
     </row>
     <row r="6">
@@ -3450,7 +3883,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>2.846153846153846</v>
       </c>
     </row>
     <row r="7">
@@ -3460,7 +3893,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.857142857142857</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="8">
@@ -3470,37 +3903,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.666666666666667</v>
+        <v>1.636363636363636</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Will Richard</t>
+          <t>Buddy Hield</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1.555555555555556</v>
+        <v>1.615384615384615</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Buddy Hield</t>
+          <t>Al Horford</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.545454545454545</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Al Horford</t>
+          <t>Will Richard</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.285714285714286</v>
+        <v>1.454545454545455</v>
       </c>
     </row>
     <row r="12">
@@ -3510,27 +3943,27 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.285714285714286</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Quinten Post</t>
+          <t>Gary Payton II</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>1.083333333333333</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Gary Payton II</t>
+          <t>Quinten Post</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -3540,7 +3973,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.2</v>
+        <v>0.1818181818181818</v>
       </c>
     </row>
   </sheetData>
@@ -3581,27 +4014,27 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7.181818181818182</v>
+        <v>6.615384615384615</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Draymond Green</t>
+          <t>Jimmy Butler III</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5.6</v>
+        <v>5.333333333333333</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Jimmy Butler III</t>
+          <t>Draymond Green</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
     </row>
     <row r="5">
@@ -3611,7 +4044,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4.727272727272728</v>
+        <v>4.769230769230769</v>
       </c>
     </row>
     <row r="6">
@@ -3621,7 +4054,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.428571428571429</v>
+        <v>4.25</v>
       </c>
     </row>
     <row r="7">
@@ -3631,7 +4064,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.181818181818182</v>
+        <v>3.769230769230769</v>
       </c>
     </row>
     <row r="8">
@@ -3641,7 +4074,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3.625</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="9">
@@ -3651,17 +4084,17 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2.888888888888889</v>
+        <v>2.636363636363636</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Will Richard</t>
+          <t>Gary Payton II</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2.555555555555555</v>
+        <v>2.583333333333333</v>
       </c>
     </row>
     <row r="11">
@@ -3671,17 +4104,17 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Gary Payton II</t>
+          <t>Will Richard</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.9</v>
+        <v>2.181818181818182</v>
       </c>
     </row>
     <row r="13">
@@ -3691,27 +4124,27 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.714285714285714</v>
+        <v>1.625</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Buddy Hield</t>
+          <t>Gui Santos</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.545454545454545</v>
+        <v>1.454545454545455</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Gui Santos</t>
+          <t>Buddy Hield</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1.3</v>
+        <v>1.384615384615385</v>
       </c>
     </row>
   </sheetData>
@@ -3752,7 +4185,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4.375</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="3">
@@ -3762,47 +4195,47 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2.666666666666667</v>
+        <v>2.818181818181818</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Draymond Green</t>
+          <t>Brandin Podziemski</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.8</v>
+        <v>1.692307692307692</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Brandin Podziemski</t>
+          <t>Draymond Green</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.636363636363636</v>
+        <v>1.583333333333333</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Buddy Hield</t>
+          <t>Al Horford</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.363636363636364</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Al Horford</t>
+          <t>Will Richard</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.285714285714286</v>
+        <v>1.363636363636364</v>
       </c>
     </row>
     <row r="8">
@@ -3812,57 +4245,57 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.272727272727273</v>
+        <v>1.230769230769231</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Will Richard</t>
+          <t>Jimmy Butler III</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1.222222222222222</v>
+        <v>1.166666666666667</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Jonathan Kuminga</t>
+          <t>Buddy Hield</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.090909090909091</v>
+        <v>1.153846153846154</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Jimmy Butler III</t>
+          <t>Jonathan Kuminga</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9</v>
+        <v>0.9230769230769231</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Gui Santos</t>
+          <t>Pat Spencer</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Pat Spencer</t>
+          <t>Gui Santos</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.3636363636363636</v>
       </c>
     </row>
     <row r="14">
@@ -3872,7 +4305,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.1</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="15">
@@ -3883,6 +4316,325 @@
       </c>
       <c r="B15" t="n">
         <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Game Time (PST)</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Opponent</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Team Points</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Opponent Points</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Game Total Points</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2025-10-21</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>LAL</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>119</v>
+      </c>
+      <c r="D2" t="n">
+        <v>109</v>
+      </c>
+      <c r="E2" t="n">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2025-10-23</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>DEN</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>137</v>
+      </c>
+      <c r="D3" t="n">
+        <v>131</v>
+      </c>
+      <c r="E3" t="n">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2025-10-24</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>POR</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>119</v>
+      </c>
+      <c r="D4" t="n">
+        <v>139</v>
+      </c>
+      <c r="E4" t="n">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2025-10-27</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>MEM</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>131</v>
+      </c>
+      <c r="D5" t="n">
+        <v>118</v>
+      </c>
+      <c r="E5" t="n">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2025-10-28</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>LAC</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>98</v>
+      </c>
+      <c r="D6" t="n">
+        <v>79</v>
+      </c>
+      <c r="E6" t="n">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>MIL</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>110</v>
+      </c>
+      <c r="D7" t="n">
+        <v>120</v>
+      </c>
+      <c r="E7" t="n">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2025-11-01</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>IND</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>109</v>
+      </c>
+      <c r="D8" t="n">
+        <v>114</v>
+      </c>
+      <c r="E8" t="n">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>PHX</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>118</v>
+      </c>
+      <c r="D9" t="n">
+        <v>107</v>
+      </c>
+      <c r="E9" t="n">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2025-11-05</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>SAC</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>116</v>
+      </c>
+      <c r="D10" t="n">
+        <v>121</v>
+      </c>
+      <c r="E10" t="n">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2025-11-07</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>DEN</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>104</v>
+      </c>
+      <c r="D11" t="n">
+        <v>129</v>
+      </c>
+      <c r="E11" t="n">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2025-11-09</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>IND</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>114</v>
+      </c>
+      <c r="D12" t="n">
+        <v>83</v>
+      </c>
+      <c r="E12" t="n">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2025-11-11</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>OKC</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>102</v>
+      </c>
+      <c r="D13" t="n">
+        <v>126</v>
+      </c>
+      <c r="E13" t="n">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2025-11-12</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>SAS</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>125</v>
+      </c>
+      <c r="D14" t="n">
+        <v>120</v>
+      </c>
+      <c r="E14" t="n">
+        <v>245</v>
       </c>
     </row>
   </sheetData>
